--- a/Exercise 3/TestCase-1.xlsx
+++ b/Exercise 3/TestCase-1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Lãi suất ngân hàng theo tháng </t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Chi phí (USD)</t>
+  </si>
+  <si>
+    <t>Thời gian hủy bỏ tại thời điểm t</t>
   </si>
 </sst>
 </file>
@@ -502,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,15 +517,21 @@
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -533,7 +542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -544,7 +553,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -555,7 +564,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -566,7 +575,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -577,7 +586,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -588,7 +597,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -599,7 +608,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -610,7 +619,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
